--- a/src/test/java/data/UserRegistrationDataInv.xlsx
+++ b/src/test/java/data/UserRegistrationDataInv.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
-  <si>
-    <t>test</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Marian</t>
   </si>
@@ -25,25 +22,13 @@
     <t>Sultan</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>test@example.com</t>
   </si>
   <si>
-    <t>customers</t>
+    <t>april</t>
   </si>
   <si>
-    <t>testgmail.com</t>
-  </si>
-  <si>
-    <t>test@hotmail.com</t>
-  </si>
-  <si>
-    <t>marian</t>
-  </si>
-  <si>
-    <t>sultan</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>selenium-automation</t>
   </si>
 </sst>
 </file>
@@ -400,7 +385,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,123 +407,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1">
         <v>1225369841</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2">
         <v>1225369841</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D3">
         <v>1225369841</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1225369841</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1225369841</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
